--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -986,7 +987,7 @@
     <t xml:space="preserve">32-34</t>
   </si>
   <si>
-    <t xml:space="preserve">template name</t>
+    <t xml:space="preserve">template_name</t>
   </si>
   <si>
     <t xml:space="preserve">minimum_facings</t>
@@ -1023,9 +1024,6 @@
   </si>
   <si>
     <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_name</t>
   </si>
   <si>
     <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
@@ -1099,6 +1097,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPI Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">template name</t>
   </si>
   <si>
     <t xml:space="preserve">product_type </t>
@@ -1935,26 +1936,26 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="93.4089068825911"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -3801,7 +3802,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4200,7 +4201,7 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4331,14 +4332,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
@@ -4475,23 +4476,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.6275303643725"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.165991902834"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4893,8 +4894,8 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4905,14 +4906,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -4940,7 +4941,7 @@
       <c r="G1" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="26" t="s">
         <v>208</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -5337,19 +5338,19 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="79" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="79" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="79" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="75.3036437246964"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="79" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="79" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="6.10526315789474"/>
@@ -5374,7 +5375,7 @@
         <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -5383,13 +5384,13 @@
         <v>182</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -5440,7 +5441,7 @@
         <v>183</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>198</v>
@@ -5475,13 +5476,13 @@
       </c>
       <c r="F3" s="80"/>
       <c r="G3" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>198</v>
@@ -5516,16 +5517,16 @@
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -5557,16 +5558,16 @@
       </c>
       <c r="F5" s="80"/>
       <c r="G5" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -5598,16 +5599,16 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -5639,16 +5640,16 @@
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -5680,7 +5681,7 @@
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>183</v>
@@ -5703,19 +5704,19 @@
     </row>
     <row r="9" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>70</v>
@@ -5724,7 +5725,7 @@
         <v>183</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K9" s="79" t="s">
         <v>199</v>
@@ -5763,18 +5764,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
@@ -5796,13 +5797,13 @@
         <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -5831,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -5840,16 +5841,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>237</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>238</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="59" t="s">
@@ -5867,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
@@ -5876,16 +5877,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>236</v>
-      </c>
       <c r="G3" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>240</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>241</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="59" t="s">
@@ -5903,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -5912,16 +5913,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>236</v>
-      </c>
       <c r="G4" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="84" t="s">
         <v>243</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>244</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="59" t="s">
@@ -5959,18 +5960,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.2024291497976"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
@@ -5988,7 +5989,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>6</v>
@@ -5997,7 +5998,7 @@
         <v>167</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>7</v>
@@ -6382,17 +6383,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="79" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="11.6761133603239"/>
@@ -6422,7 +6423,7 @@
         <v>167</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I1" s="85" t="s">
         <v>7</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="277">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1063,6 +1063,9 @@
     <t xml:space="preserve">relevant_questions</t>
   </si>
   <si>
+    <t xml:space="preserve">relevant_question_fk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primera posicion - Option 1</t>
   </si>
   <si>
@@ -1078,6 +1081,9 @@
     <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
   </si>
   <si>
+    <t xml:space="preserve">3,4,8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primera posicion - Option 2</t>
   </si>
   <si>
@@ -1094,6 +1100,9 @@
   </si>
   <si>
     <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6,7</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Description </t>
@@ -4061,7 +4070,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>141</v>
@@ -4272,7 +4281,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E2" s="64" t="s">
         <v>192</v>
@@ -4284,7 +4293,7 @@
         <v>173</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="64"/>
@@ -4298,7 +4307,7 @@
         <v>186</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>44</v>
@@ -4894,7 +4903,7 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -5756,13 +5765,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
@@ -5772,12 +5781,12 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5806,24 +5815,27 @@
         <v>232</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5832,7 +5844,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -5841,25 +5853,28 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="M2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5868,7 +5883,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
@@ -5877,34 +5892,37 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="M3" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="338.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -5913,25 +5931,28 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="M4" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5989,7 +6010,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>6</v>
@@ -5998,7 +6019,7 @@
         <v>167</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>7</v>
@@ -6007,16 +6028,16 @@
         <v>4</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>8</v>
@@ -6098,7 +6119,7 @@
         <v>124</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>131</v>
@@ -6107,18 +6128,18 @@
         <v>181</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
       <c r="N3" s="59"/>
       <c r="O3" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P3" s="59"/>
       <c r="Q3" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
@@ -6143,7 +6164,7 @@
         <v>124</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>131</v>
@@ -6152,18 +6173,18 @@
         <v>204</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
       <c r="N4" s="59"/>
       <c r="O4" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P4" s="59"/>
       <c r="Q4" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R4" s="59"/>
       <c r="S4" s="59"/>
@@ -6188,7 +6209,7 @@
         <v>124</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>131</v>
@@ -6197,18 +6218,18 @@
         <v>143</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
       <c r="N5" s="59"/>
       <c r="O5" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P5" s="59"/>
       <c r="Q5" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R5" s="59"/>
       <c r="S5" s="59"/>
@@ -6230,20 +6251,20 @@
         <v>122</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>158</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -6271,31 +6292,31 @@
         <v>160</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G7" s="90" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H7" s="62" t="s">
         <v>158</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K7" s="91" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L7" s="92" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M7" s="92" t="s">
         <v>180</v>
@@ -6331,7 +6352,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>131</v>
@@ -6340,18 +6361,18 @@
         <v>204</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
       <c r="N8" s="59"/>
       <c r="O8" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P8" s="59"/>
       <c r="Q8" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
@@ -6376,8 +6397,8 @@
   </sheetPr>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6485,11 +6506,11 @@
       <c r="J2" s="62"/>
       <c r="K2" s="62"/>
       <c r="L2" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M2" s="94"/>
       <c r="N2" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94" t="s">
@@ -6529,11 +6550,11 @@
       <c r="J3" s="62"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M3" s="94"/>
       <c r="N3" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O3" s="94"/>
       <c r="P3" s="94" t="s">
@@ -6564,7 +6585,7 @@
         <v>108</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="62" t="s">
@@ -6573,11 +6594,11 @@
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M4" s="94"/>
       <c r="N4" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O4" s="94"/>
       <c r="P4" s="94" t="s">
@@ -6608,7 +6629,7 @@
         <v>108</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="62" t="s">
@@ -6617,11 +6638,11 @@
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M5" s="94"/>
       <c r="N5" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O5" s="94"/>
       <c r="P5" s="94" t="s">
@@ -6652,7 +6673,7 @@
         <v>108</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="62" t="s">
@@ -6661,11 +6682,11 @@
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M6" s="94"/>
       <c r="N6" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O6" s="94"/>
       <c r="P6" s="94" t="s">
@@ -6681,10 +6702,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>132</v>
@@ -6699,7 +6720,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>137</v>
@@ -6723,13 +6744,13 @@
         <v>43</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>136</v>
@@ -6741,7 +6762,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>137</v>
@@ -6751,11 +6772,11 @@
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M8" s="97"/>
       <c r="N8" s="40" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O8" s="95"/>
       <c r="P8" s="95"/>
@@ -6772,10 +6793,10 @@
         <v>141</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>136</v>
@@ -6787,7 +6808,7 @@
         <v>124</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>134</v>
@@ -6814,7 +6835,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>146</v>
@@ -6829,7 +6850,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>137</v>
@@ -6839,11 +6860,11 @@
       </c>
       <c r="K10" s="95"/>
       <c r="L10" s="95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M10" s="95"/>
       <c r="N10" s="95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95"/>
@@ -6875,7 +6896,7 @@
         <v>124</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I11" s="40" t="s">
         <v>134</v>
@@ -6917,7 +6938,7 @@
         <v>124</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>137</v>
@@ -6927,11 +6948,11 @@
       </c>
       <c r="K12" s="95"/>
       <c r="L12" s="95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M12" s="95"/>
       <c r="N12" s="95" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O12" s="95"/>
       <c r="P12" s="95"/>
@@ -6948,10 +6969,10 @@
         <v>162</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>136</v>
@@ -6963,7 +6984,7 @@
         <v>124</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>134</v>
@@ -6990,7 +7011,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>164</v>
@@ -7005,7 +7026,7 @@
         <v>124</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>137</v>
@@ -7015,11 +7036,11 @@
       </c>
       <c r="K14" s="95"/>
       <c r="L14" s="95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M14" s="95"/>
       <c r="N14" s="95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O14" s="95"/>
       <c r="P14" s="95"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.6.xlsx
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1099,7 +1100,7 @@
     <t xml:space="preserve">If all questions are answered "No" then pass </t>
   </si>
   <si>
-    <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
+    <t xml:space="preserve">self.granular_group_link_store</t>
   </si>
   <si>
     <t xml:space="preserve">5,6,7</t>
@@ -1954,17 +1955,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="93.4089068825911"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.2631578947368"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -3811,7 +3812,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4341,14 +4342,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
@@ -4485,23 +4486,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.5951417004049"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4915,14 +4916,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5347,20 +5348,19 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="79" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="79" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="59.8785425101215"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="79" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="75.9473684210526"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="79" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="79" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="79" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="79" width="6.63967611336032"/>
@@ -5767,24 +5767,24 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -5981,18 +5981,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.6315789473684"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
@@ -6404,17 +6404,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="53.0242914979757"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="79" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="11.6761133603239"/>
